--- a/docs/conduit_TC_szzv.xlsx
+++ b/docs/conduit_TC_szzv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40A1B0D-640F-4858-A643-EDAB73987845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6301E8-70C2-4174-956B-81D844050B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{D3F4B53B-DA25-4BB9-A016-0DBE947B6734}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D3F4B53B-DA25-4BB9-A016-0DBE947B6734}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="23" r:id="rId1"/>
@@ -1008,7 +1008,7 @@
     <t>kedvenc blogposztok listázása</t>
   </si>
   <si>
-    <t>screenshot az allureben mellékelve</t>
+    <t>expected failure részletek az allureban</t>
   </si>
 </sst>
 </file>
@@ -1625,31 +1625,11 @@
   <dxfs count="9">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1695,11 +1675,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2034,7 +2034,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2372,7 +2372,7 @@
         <v>287</v>
       </c>
       <c r="E14" s="102" t="s">
-        <v>142</v>
+        <v>3</v>
       </c>
       <c r="F14" s="98" t="s">
         <v>315</v>
@@ -2420,11 +2420,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E15">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2441,8 +2441,8 @@
   </sheetPr>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2702,7 +2702,7 @@
       <c r="H16" s="37"/>
       <c r="I16" s="37"/>
     </row>
-    <row r="17" spans="1:9" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>4</v>
       </c>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="E18" s="68"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H18" s="68"/>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="E19" s="68"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H19" s="68"/>
@@ -2776,7 +2776,7 @@
       </c>
       <c r="E20" s="71"/>
       <c r="F20" s="13"/>
-      <c r="G20" s="26" t="s">
+      <c r="G20" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H20" s="65"/>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="E21" s="68"/>
       <c r="F21" s="13"/>
-      <c r="G21" s="26" t="s">
+      <c r="G21" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H21" s="65"/>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="E22" s="70"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="26" t="s">
+      <c r="G22" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="66"/>
@@ -2898,8 +2898,8 @@
   </sheetPr>
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3161,7 +3161,7 @@
       <c r="H16" s="37"/>
       <c r="I16" s="37"/>
     </row>
-    <row r="17" spans="1:9" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>4</v>
       </c>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="E18" s="73"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H18" s="68"/>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="E19" s="73"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H19" s="68"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="E20" s="77"/>
       <c r="F20" s="13"/>
-      <c r="G20" s="26" t="s">
+      <c r="G20" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H20" s="32"/>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="E21" s="78"/>
       <c r="F21" s="13"/>
-      <c r="G21" s="26" t="s">
+      <c r="G21" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H21" s="65"/>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="E22" s="73"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="26" t="s">
+      <c r="G22" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="65"/>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="E23" s="77"/>
       <c r="F23" s="13"/>
-      <c r="G23" s="26" t="s">
+      <c r="G23" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H23" s="66"/>
@@ -3445,8 +3445,8 @@
   </sheetPr>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3704,7 +3704,7 @@
       <c r="H16" s="37"/>
       <c r="I16" s="37"/>
     </row>
-    <row r="17" spans="1:9" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>4</v>
       </c>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="E18" s="68"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H18" s="68"/>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="E19" s="68"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H19" s="68"/>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="E20" s="71"/>
       <c r="F20" s="13"/>
-      <c r="G20" s="26" t="s">
+      <c r="G20" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H20" s="65"/>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="E21" s="68"/>
       <c r="F21" s="13"/>
-      <c r="G21" s="26" t="s">
+      <c r="G21" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H21" s="65"/>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="E22" s="70"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="26" t="s">
+      <c r="G22" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="66"/>
@@ -4352,7 +4352,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H24" sqref="H24:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7820,7 +7820,7 @@
     <mergeCell ref="D18:E18"/>
   </mergeCells>
   <conditionalFormatting sqref="G18:G22">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10125,7 +10125,7 @@
     <mergeCell ref="H21:I21"/>
   </mergeCells>
   <conditionalFormatting sqref="G18:G20">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10141,7 +10141,7 @@
   </sheetPr>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -10661,12 +10661,12 @@
     <mergeCell ref="H25:I25"/>
   </mergeCells>
   <conditionalFormatting sqref="G18:G26">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:I5">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11109,7 +11109,7 @@
     <mergeCell ref="F2:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11125,7 +11125,7 @@
   </sheetPr>
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -11745,8 +11745,8 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12006,7 +12006,7 @@
       <c r="H16" s="37"/>
       <c r="I16" s="37"/>
     </row>
-    <row r="17" spans="1:9" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>4</v>
       </c>
@@ -12042,7 +12042,7 @@
       </c>
       <c r="E18" s="68"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H18" s="68"/>
@@ -12061,7 +12061,7 @@
       </c>
       <c r="E19" s="68"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H19" s="68"/>
@@ -12080,7 +12080,7 @@
       </c>
       <c r="E20" s="71"/>
       <c r="F20" s="13"/>
-      <c r="G20" s="26" t="s">
+      <c r="G20" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H20" s="65"/>
@@ -12099,7 +12099,7 @@
       </c>
       <c r="E21" s="68"/>
       <c r="F21" s="13"/>
-      <c r="G21" s="26" t="s">
+      <c r="G21" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H21" s="65"/>
@@ -12118,7 +12118,7 @@
       </c>
       <c r="E22" s="70"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="26" t="s">
+      <c r="G22" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="66"/>
@@ -12203,8 +12203,8 @@
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12462,7 +12462,7 @@
       <c r="H16" s="37"/>
       <c r="I16" s="37"/>
     </row>
-    <row r="17" spans="1:9" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>4</v>
       </c>
@@ -12498,7 +12498,7 @@
       </c>
       <c r="E18" s="68"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H18" s="68"/>
@@ -12517,7 +12517,7 @@
       </c>
       <c r="E19" s="68"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H19" s="68"/>
@@ -12536,7 +12536,7 @@
       </c>
       <c r="E20" s="71"/>
       <c r="F20" s="13"/>
-      <c r="G20" s="26" t="s">
+      <c r="G20" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H20" s="65"/>
@@ -12555,7 +12555,7 @@
       </c>
       <c r="E21" s="68"/>
       <c r="F21" s="13"/>
-      <c r="G21" s="26" t="s">
+      <c r="G21" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H21" s="65" t="s">
@@ -12576,7 +12576,7 @@
       </c>
       <c r="E22" s="70"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="26" t="s">
+      <c r="G22" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="66"/>
@@ -12661,8 +12661,8 @@
   </sheetPr>
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12924,7 +12924,7 @@
       <c r="H16" s="37"/>
       <c r="I16" s="37"/>
     </row>
-    <row r="17" spans="1:9" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>4</v>
       </c>
@@ -12960,7 +12960,7 @@
       </c>
       <c r="E18" s="68"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H18" s="68"/>
@@ -12979,7 +12979,7 @@
       </c>
       <c r="E19" s="68"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H19" s="68"/>
@@ -12998,7 +12998,7 @@
       </c>
       <c r="E20" s="71"/>
       <c r="F20" s="13"/>
-      <c r="G20" s="26" t="s">
+      <c r="G20" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H20" s="65"/>
@@ -13017,7 +13017,7 @@
       </c>
       <c r="E21" s="68"/>
       <c r="F21" s="13"/>
-      <c r="G21" s="26" t="s">
+      <c r="G21" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H21" s="65"/>
@@ -13036,7 +13036,7 @@
       </c>
       <c r="E22" s="70"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="26" t="s">
+      <c r="G22" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="66"/>
